--- a/biology/Botanique/Herbier_historique_de_Saint-Oyen/Herbier_historique_de_Saint-Oyen.xlsx
+++ b/biology/Botanique/Herbier_historique_de_Saint-Oyen/Herbier_historique_de_Saint-Oyen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'herbier historique de Saint-Oyen est un herbier appartenant à la commune de Saint-Oyen, dans la vallée du Grand-Saint-Bernard, en Italie. Il se trouve dans la bibliothèque communale « Jean-Oyen Mallé ».
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet herbier contient les espèces végétales de la vallée du Grand-Saint-Bernard. Elles ont été recueillies par les chanoines du Grand-Saint-Bernard, renommés pour leur passion pour la botanique.
 Oublié pendant longtemps, il a été retrouvé en 1992 après la restauration de la maison forte du Château-Verdun. La réorganisation de l'herbier a demandé beaucoup d'efforts, notamment par la substitution de papiers. Il représente un aperçu de 75 familles de plantes appartenant à flore locale entre la moitié du XIXe et le début du  XXe siècle. Quelques-uns des 2 755 exemplaires originales ont été détruits, mais la plupart est en bon état de conservation.
